--- a/Common/Template/ModelTemplate.xlsx
+++ b/Common/Template/ModelTemplate.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>正则表达</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -239,9 +239,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CompanyTable</t>
-  </si>
-  <si>
     <t>MasterTable</t>
   </si>
   <si>
@@ -285,7 +282,21 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Organization</t>
+  </si>
+  <si>
     <t>StatusMasterTable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatalogMasterTable</t>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -583,6 +594,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -591,75 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -958,11 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR41"/>
+  <dimension ref="A1:AS41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL23" sqref="AL23"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -976,39 +987,42 @@
     <col min="32" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:45">
       <c r="A1" s="10"/>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:45">
       <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="AA2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB2" s="12" t="s">
         <v>47</v>
       </c>
       <c r="AC2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="40" t="s">
         <v>60</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="AJ2" s="5" t="s">
         <v>5</v>
@@ -1028,34 +1042,37 @@
       <c r="AO2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="2"/>
+      <c r="AP2" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
-    </row>
-    <row r="3" spans="1:44">
+      <c r="AS2" s="2"/>
+    </row>
+    <row r="3" spans="1:45">
       <c r="B3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="AA3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="AC3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AJ3" s="5" t="s">
@@ -1079,138 +1096,141 @@
       <c r="AP3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="40" t="s">
+      <c r="AQ3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" s="40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" ht="18.75" customHeight="1">
-      <c r="B5" s="17" t="s">
+      <c r="AS3" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="18.75" customHeight="1">
+      <c r="B5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="25" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="35" t="s">
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="38" t="s">
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="31" t="s">
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-    </row>
-    <row r="6" spans="1:44" ht="14.25" customHeight="1">
-      <c r="B6" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+    </row>
+    <row r="6" spans="1:45" ht="14.25" customHeight="1">
+      <c r="B6" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="22" t="s">
+      <c r="H6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="19" t="s">
+      <c r="J6" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24" t="s">
+      <c r="O6" s="15"/>
+      <c r="P6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="32" t="s">
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="33"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="32" t="s">
+      <c r="T6" s="17"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="W6" s="34"/>
-      <c r="X6" s="22" t="s">
+      <c r="W6" s="18"/>
+      <c r="X6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="Y6" s="22" t="s">
+      <c r="Y6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="24" t="s">
+      <c r="Z6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="24" t="s">
+      <c r="AA6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="24" t="s">
+      <c r="AB6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="14.25" customHeight="1">
-      <c r="B7" s="28"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+    <row r="7" spans="1:45" ht="14.25" customHeight="1">
+      <c r="B7" s="34"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1241,13 +1261,13 @@
       <c r="W7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-    </row>
-    <row r="8" spans="1:44">
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+    </row>
+    <row r="8" spans="1:45">
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1276,7 +1296,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:45">
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1305,7 +1325,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:45">
       <c r="B10" s="2"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1334,7 +1354,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:45">
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1363,7 +1383,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:45">
       <c r="B12" s="2"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1392,7 +1412,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:45">
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1421,7 +1441,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:45">
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1450,7 +1470,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:45">
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1479,7 +1499,7 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:45">
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2235,18 +2255,12 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="F5:J5"/>
@@ -2262,23 +2276,29 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>$AK$3:$AR$3</formula1>
+      <formula1>$AK$3:$AS$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576">
-      <formula1>$AK$2:$AO$2</formula1>
+      <formula1>$AK$2:$AP$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J2">
-      <formula1>$AB$2:$AE$2</formula1>
+      <formula1>$AB$2:$AF$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>$AB$3:$AC$3</formula1>

--- a/Common/Template/ModelTemplate.xlsx
+++ b/Common/Template/ModelTemplate.xlsx
@@ -49,10 +49,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>正则表达</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -68,243 +68,260 @@
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>必须项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>更新者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>更新日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>电子邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是/否</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日期时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型枚举</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Key项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>领域专家填写</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发人员填写</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>输入规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据库设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户交互设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>领域项目名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>变量名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据模型名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名字空间名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据集名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主键前缀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列表类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>继承</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EntityBase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
   </si>
   <si>
     <t>说明标题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>画面表示名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>标记</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>HIDDEN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SuperClass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Flag</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SKIP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>枚举/Master类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>辅助评价表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>StatusMasterTable</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CatalogMasterTable</t>
   </si>
   <si>
     <t>手机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>目录表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ompanyTable</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +329,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -551,42 +575,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -594,62 +621,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -657,20 +672,32 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -973,18 +1000,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" style="1"/>
-    <col min="2" max="10" width="13.625" style="1" customWidth="1"/>
-    <col min="11" max="28" width="10" style="1"/>
-    <col min="29" max="29" width="16" style="1" customWidth="1"/>
-    <col min="30" max="30" width="18.375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="10" style="1"/>
+    <col min="2" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="12" max="29" width="10" style="1"/>
+    <col min="30" max="30" width="16" style="1" customWidth="1"/>
+    <col min="31" max="31" width="18.375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
@@ -994,35 +1021,35 @@
       <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="AB2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>59</v>
+      <c r="AC2" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" s="40" t="s">
+      <c r="AE2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="AJ2" s="5" t="s">
         <v>5</v>
@@ -1042,8 +1069,8 @@
       <c r="AO2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="40" t="s">
-        <v>62</v>
+      <c r="AP2" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
@@ -1053,18 +1080,18 @@
       <c r="B3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -1102,170 +1129,175 @@
       <c r="AR3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" s="40" t="s">
-        <v>63</v>
+      <c r="AS3" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="18.75" customHeight="1">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="30" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="19" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="22" t="s">
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="14" t="s">
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
     </row>
     <row r="6" spans="1:45" ht="14.25" customHeight="1">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="K6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="L6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="M6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="N6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="O6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="16" t="s">
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="16" t="s">
+      <c r="U6" s="34"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="24" t="s">
+      <c r="X6" s="35"/>
+      <c r="Y6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="Y6" s="24" t="s">
+      <c r="Z6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="15" t="s">
+      <c r="AA6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AB6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="15" t="s">
+      <c r="AC6" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:45" ht="14.25" customHeight="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="9" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="U7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="W7" s="8" t="s">
+      <c r="X7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
     </row>
     <row r="8" spans="1:45">
       <c r="B8" s="2"/>
@@ -1276,11 +1308,11 @@
       <c r="G8" s="6"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1293,8 +1325,9 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="4"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="1:45">
       <c r="B9" s="2"/>
@@ -1305,11 +1338,11 @@
       <c r="G9" s="6"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1322,8 +1355,9 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="4"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="4"/>
     </row>
     <row r="10" spans="1:45">
       <c r="B10" s="2"/>
@@ -1334,11 +1368,11 @@
       <c r="G10" s="6"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1351,8 +1385,9 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="4"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:45">
       <c r="B11" s="2"/>
@@ -1363,11 +1398,11 @@
       <c r="G11" s="6"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="7"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1380,8 +1415,9 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="4"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:45">
       <c r="B12" s="2"/>
@@ -1392,11 +1428,11 @@
       <c r="G12" s="6"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="7"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1409,8 +1445,9 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="4"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:45">
       <c r="B13" s="2"/>
@@ -1421,11 +1458,11 @@
       <c r="G13" s="6"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="7"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1438,8 +1475,9 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="4"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="1:45">
       <c r="B14" s="2"/>
@@ -1450,11 +1488,11 @@
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1467,8 +1505,9 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="4"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="4"/>
     </row>
     <row r="15" spans="1:45">
       <c r="B15" s="2"/>
@@ -1479,11 +1518,11 @@
       <c r="G15" s="6"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="7"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="7"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1496,8 +1535,9 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="4"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:45">
       <c r="B16" s="2"/>
@@ -1508,11 +1548,11 @@
       <c r="G16" s="6"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="7"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1527,8 +1567,9 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
-    </row>
-    <row r="17" spans="2:28">
+      <c r="AC16" s="2"/>
+    </row>
+    <row r="17" spans="2:29">
       <c r="B17" s="2"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1537,11 +1578,11 @@
       <c r="G17" s="6"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="2"/>
+      <c r="N17" s="7"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1556,8 +1597,9 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-    </row>
-    <row r="18" spans="2:28">
+      <c r="AC17" s="2"/>
+    </row>
+    <row r="18" spans="2:29">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1585,8 +1627,9 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-    </row>
-    <row r="19" spans="2:28">
+      <c r="AC18" s="2"/>
+    </row>
+    <row r="19" spans="2:29">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1614,8 +1657,9 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-    </row>
-    <row r="20" spans="2:28">
+      <c r="AC19" s="2"/>
+    </row>
+    <row r="20" spans="2:29">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1643,8 +1687,9 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
-    </row>
-    <row r="21" spans="2:28">
+      <c r="AC20" s="2"/>
+    </row>
+    <row r="21" spans="2:29">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1672,8 +1717,9 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-    </row>
-    <row r="22" spans="2:28">
+      <c r="AC21" s="2"/>
+    </row>
+    <row r="22" spans="2:29">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1701,8 +1747,9 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
-    </row>
-    <row r="23" spans="2:28">
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="2:29">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1730,8 +1777,9 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
-    </row>
-    <row r="24" spans="2:28">
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="24" spans="2:29">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1759,8 +1807,9 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
-    </row>
-    <row r="25" spans="2:28">
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="2:29">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1788,8 +1837,9 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
-    </row>
-    <row r="26" spans="2:28">
+      <c r="AC25" s="2"/>
+    </row>
+    <row r="26" spans="2:29">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1817,8 +1867,9 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
-    </row>
-    <row r="27" spans="2:28">
+      <c r="AC26" s="2"/>
+    </row>
+    <row r="27" spans="2:29">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1846,8 +1897,9 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
-    </row>
-    <row r="28" spans="2:28">
+      <c r="AC27" s="2"/>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1875,8 +1927,9 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
-    </row>
-    <row r="29" spans="2:28">
+      <c r="AC28" s="2"/>
+    </row>
+    <row r="29" spans="2:29">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1904,8 +1957,9 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
-    </row>
-    <row r="30" spans="2:28">
+      <c r="AC29" s="2"/>
+    </row>
+    <row r="30" spans="2:29">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1933,8 +1987,9 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
-    </row>
-    <row r="31" spans="2:28">
+      <c r="AC30" s="2"/>
+    </row>
+    <row r="31" spans="2:29">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1962,8 +2017,9 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
-    </row>
-    <row r="32" spans="2:28">
+      <c r="AC31" s="2"/>
+    </row>
+    <row r="32" spans="2:29">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1991,8 +2047,9 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
-    </row>
-    <row r="33" spans="2:28">
+      <c r="AC32" s="2"/>
+    </row>
+    <row r="33" spans="2:29">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2020,8 +2077,9 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
-    </row>
-    <row r="34" spans="2:28">
+      <c r="AC33" s="2"/>
+    </row>
+    <row r="34" spans="2:29">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2049,8 +2107,9 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
-    </row>
-    <row r="35" spans="2:28">
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" spans="2:29">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2078,8 +2137,9 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
-    </row>
-    <row r="36" spans="2:28">
+      <c r="AC35" s="2"/>
+    </row>
+    <row r="36" spans="2:29">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2107,8 +2167,9 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
-    </row>
-    <row r="37" spans="2:28">
+      <c r="AC36" s="2"/>
+    </row>
+    <row r="37" spans="2:29">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2136,8 +2197,9 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
-    </row>
-    <row r="38" spans="2:28">
+      <c r="AC37" s="2"/>
+    </row>
+    <row r="38" spans="2:29">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2165,8 +2227,9 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
-    </row>
-    <row r="39" spans="2:28">
+      <c r="AC38" s="2"/>
+    </row>
+    <row r="39" spans="2:29">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2194,8 +2257,9 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
-    </row>
-    <row r="40" spans="2:28">
+      <c r="AC39" s="2"/>
+    </row>
+    <row r="40" spans="2:29">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2223,8 +2287,9 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
-    </row>
-    <row r="41" spans="2:28">
+      <c r="AC40" s="2"/>
+    </row>
+    <row r="41" spans="2:29">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2252,53 +2317,55 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J2">
+      <formula1>$AB$2:$AF$2</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>$AK$3:$AS$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y1048576 Y1 X2:X3">
       <formula1>$AK$2:$AP$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J2">
-      <formula1>$AB$2:$AF$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>$AB$3:$AC$3</formula1>

--- a/Common/Template/ModelTemplate.xlsx
+++ b/Common/Template/ModelTemplate.xlsx
@@ -52,7 +52,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>正则表达</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -68,233 +68,233 @@
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>必须项目</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>表示</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>更新者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>更新日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>电子邮件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>是/否</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>日期时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型枚举</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Key项目</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>领域专家填写</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>开发人员填写</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>输入规则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数据库设计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>用户交互设计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>领域项目名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>变量名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数据模型名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>名字空间名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数据集名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>主键前缀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>列表类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>继承</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>EntityBase</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
   </si>
   <si>
     <t>说明标题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>画面表示名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>标记</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HIDDEN</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SuperClass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Flag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SKIP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>枚举/Master类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>辅助评价表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>StatusMasterTable</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CatalogMasterTable</t>
   </si>
   <si>
     <t>手机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>目录表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -310,18 +310,18 @@
       </rPr>
       <t>ompanyTable</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>目录类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +329,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -579,38 +586,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -621,44 +631,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -666,41 +700,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,7 +1007,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I8" sqref="I8"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -1021,25 +1028,25 @@
       <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="AB2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="15" t="s">
         <v>63</v>
       </c>
       <c r="AD2" s="2" t="s">
@@ -1080,18 +1087,18 @@
       <c r="B3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -1134,135 +1141,135 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="18.75" customHeight="1">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="22" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="26" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="36" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="39" t="s">
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="32" t="s">
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
     </row>
     <row r="6" spans="1:45" ht="14.25" customHeight="1">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25" t="s">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="33" t="s">
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="34"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="33" t="s">
+      <c r="U6" s="19"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="23" t="s">
+      <c r="X6" s="20"/>
+      <c r="Y6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="23" t="s">
+      <c r="Z6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="25" t="s">
+      <c r="AA6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="25" t="s">
+      <c r="AB6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="25" t="s">
+      <c r="AC6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:45" ht="14.25" customHeight="1">
-      <c r="B7" s="29"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1293,11 +1300,11 @@
       <c r="X7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
     </row>
     <row r="8" spans="1:45">
       <c r="B8" s="2"/>
@@ -2321,18 +2328,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="O5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F5:K5"/>
@@ -2349,14 +2350,20 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J2">
       <formula1>$AB$2:$AF$2</formula1>

--- a/Common/Template/ModelTemplate.xlsx
+++ b/Common/Template/ModelTemplate.xlsx
@@ -49,10 +49,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>正则表达</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -68,233 +68,233 @@
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必须项目</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>更新者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>更新日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>电子邮件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>是/否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>日期时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型枚举</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Key项目</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>领域专家填写</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>开发人员填写</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>输入规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数据库设计</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>用户交互设计</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>领域项目名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>变量名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数据模型名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>名字空间名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数据集名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>主键前缀</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>列表类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>继承</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EntityBase</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
   </si>
   <si>
     <t>说明标题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>画面表示名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>标记</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HIDDEN</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SuperClass</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Flag</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SKIP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>枚举/Master类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>辅助评价表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>StatusMasterTable</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CatalogMasterTable</t>
   </si>
   <si>
     <t>手机</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>目录表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -310,18 +310,31 @@
       </rPr>
       <t>ompanyTable</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>目录类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单精度浮点</t>
+  </si>
+  <si>
+    <t>双精度浮点</t>
+  </si>
+  <si>
+    <t>高精度浮点</t>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +342,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -490,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -576,50 +596,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -628,65 +738,95 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -694,19 +834,13 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS41"/>
+  <dimension ref="A1:AV41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
@@ -1021,84 +1155,94 @@
     <col min="33" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:48" ht="17.25" thickBot="1">
       <c r="A1" s="10"/>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:48">
       <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="49">
+        <v>1</v>
+      </c>
+      <c r="M2" s="49"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="AB2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="14" t="s">
         <v>63</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AO2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="14" t="s">
+      <c r="AP2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-    </row>
-    <row r="3" spans="1:45">
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="18"/>
+    </row>
+    <row r="3" spans="1:48" ht="17.25" thickBot="1">
       <c r="B3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -1109,167 +1253,176 @@
         <v>52</v>
       </c>
       <c r="AD3" s="2"/>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AK3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AL3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AM3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AN3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AO3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AS3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="13" t="s">
+      <c r="AT3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AR3" s="13" t="s">
+      <c r="AU3" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" s="14" t="s">
+      <c r="AV3" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="18.75" customHeight="1">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:48" ht="18.75" customHeight="1">
+      <c r="B5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="32" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="21" t="s">
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="24" t="s">
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="16" t="s">
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-    </row>
-    <row r="6" spans="1:45" ht="14.25" customHeight="1">
-      <c r="B6" s="35" t="s">
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+    </row>
+    <row r="6" spans="1:48" ht="14.25" customHeight="1">
+      <c r="B6" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="18" t="s">
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="19"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="18" t="s">
+      <c r="U6" s="27"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="26" t="s">
+      <c r="X6" s="28"/>
+      <c r="Y6" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="26" t="s">
+      <c r="Z6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="17" t="s">
+      <c r="AB6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="17" t="s">
+      <c r="AC6" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="14.25" customHeight="1">
-      <c r="B7" s="36"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+    <row r="7" spans="1:48" ht="14.25" customHeight="1">
+      <c r="B7" s="44"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1300,13 +1453,13 @@
       <c r="X7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-    </row>
-    <row r="8" spans="1:45">
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+    </row>
+    <row r="8" spans="1:48">
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1336,7 +1489,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:48">
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1366,7 +1519,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:48">
       <c r="B10" s="2"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1396,7 +1549,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:48">
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1426,7 +1579,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:48">
       <c r="B12" s="2"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1456,7 +1609,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:48">
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1486,7 +1639,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:48">
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1516,7 +1669,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:48">
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1546,7 +1699,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:48">
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2327,7 +2480,8 @@
       <c r="AC41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -2363,13 +2517,10 @@
     <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="Z6:Z7"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J2">
       <formula1>$AB$2:$AF$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>$AK$3:$AS$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y1048576 Y1 X2:X3">
       <formula1>$AK$2:$AP$2</formula1>
@@ -2377,6 +2528,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>$AB$3:$AC$3</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>$AK$3:$AV$3</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Common/Template/ModelTemplate.xlsx
+++ b/Common/Template/ModelTemplate.xlsx
@@ -692,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,12 +765,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,53 +843,11 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,17 +1147,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" style="1"/>
     <col min="2" max="11" width="13.625" style="1" customWidth="1"/>
-    <col min="12" max="29" width="10" style="1"/>
+    <col min="12" max="26" width="10" style="1"/>
+    <col min="27" max="27" width="13.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10" style="1"/>
+    <col min="29" max="29" width="14.875" style="1" customWidth="1"/>
     <col min="30" max="30" width="16" style="1" customWidth="1"/>
     <col min="31" max="31" width="18.375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.25" style="1" customWidth="1"/>
     <col min="33" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
@@ -1162,25 +1171,25 @@
       <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="24">
         <v>1</v>
       </c>
-      <c r="M2" s="49"/>
+      <c r="M2" s="24"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -1196,7 +1205,7 @@
       <c r="AE2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AJ2" s="15" t="s">
@@ -1231,28 +1240,28 @@
       <c r="B3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" s="2"/>
+      <c r="AD3" s="51"/>
       <c r="AJ3" s="19" t="s">
         <v>25</v>
       </c>
@@ -1294,135 +1303,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="40" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="41" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="29" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="32" t="s">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="24" t="s">
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25" t="s">
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="26" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="26" t="s">
+      <c r="U6" s="43"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="34" t="s">
+      <c r="X6" s="44"/>
+      <c r="Y6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="34" t="s">
+      <c r="Z6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="25" t="s">
+      <c r="AA6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="25" t="s">
+      <c r="AB6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="25" t="s">
+      <c r="AC6" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1">
-      <c r="B7" s="44"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1453,11 +1462,11 @@
       <c r="X7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
     </row>
     <row r="8" spans="1:48">
       <c r="B8" s="2"/>
@@ -2481,13 +2490,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F5:K5"/>
@@ -2504,18 +2518,13 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="O5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">

--- a/Common/Template/ModelTemplate.xlsx
+++ b/Common/Template/ModelTemplate.xlsx
@@ -52,7 +52,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>正则表达</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -68,253 +68,237 @@
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>必须项目</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>表示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>更新者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>更新日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>电子邮件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>是/否</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>日期时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型枚举</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Key项目</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>领域专家填写</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>开发人员填写</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>输入规则</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数据库设计</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>用户交互设计</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>领域项目名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>变量名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数据模型名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>名字空间名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数据集名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>主键前缀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>列表类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>继承</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>EntityBase</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
   </si>
   <si>
     <t>说明标题</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>画面表示名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>标记</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HIDDEN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SuperClass</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Flag</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SKIP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>枚举/Master类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>辅助评价表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>StatusMasterTable</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CatalogMasterTable</t>
   </si>
   <si>
     <t>手机</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>目录表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ompanyTable</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>目录类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单精度浮点</t>
@@ -327,14 +311,18 @@
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerTable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,13 +330,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -696,119 +677,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -816,38 +797,38 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,7 +1128,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD11" sqref="AD11"/>
+      <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -1171,33 +1152,33 @@
       <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="24">
+        <v>67</v>
+      </c>
+      <c r="L2" s="26">
         <v>1</v>
       </c>
-      <c r="M2" s="24"/>
+      <c r="M2" s="26"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="AB2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="14" t="s">
-        <v>63</v>
+      <c r="AC2" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>48</v>
@@ -1208,230 +1189,230 @@
       <c r="AF2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="16" t="s">
+      <c r="AK2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AL2" s="16" t="s">
+      <c r="AL2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="16" t="s">
+      <c r="AN2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AO2" s="16" t="s">
+      <c r="AO2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="17" t="s">
+      <c r="AP2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="18"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="17"/>
     </row>
     <row r="3" spans="1:48" ht="17.25" thickBot="1">
       <c r="B3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="50" t="s">
+      <c r="AB3" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="51" t="s">
+      <c r="AC3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" s="51"/>
-      <c r="AJ3" s="19" t="s">
+      <c r="AD3" s="24"/>
+      <c r="AJ3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AK3" s="20" t="s">
+      <c r="AK3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AL3" s="20" t="s">
+      <c r="AL3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AM3" s="20" t="s">
+      <c r="AM3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AN3" s="20" t="s">
+      <c r="AN3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AO3" s="21" t="s">
+      <c r="AO3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="AP3" s="21" t="s">
+      <c r="AQ3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AQ3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR3" s="20" t="s">
+      <c r="AR3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AS3" s="20" t="s">
+      <c r="AS3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AT3" s="22" t="s">
+      <c r="AT3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AU3" s="22" t="s">
+      <c r="AU3" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AV3" s="23" t="s">
+      <c r="AV3" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="31" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="35" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="45" t="s">
+      <c r="M5" s="37"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="48" t="s">
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="41" t="s">
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="32" t="s">
+      <c r="I6" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34" t="s">
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="42" t="s">
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="43"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="42" t="s">
+      <c r="U6" s="45"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="32" t="s">
+      <c r="X6" s="46"/>
+      <c r="Y6" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="32" t="s">
+      <c r="Z6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="34" t="s">
+      <c r="AA6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="34" t="s">
+      <c r="AB6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="34" t="s">
+      <c r="AC6" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1">
-      <c r="B7" s="38"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1462,11 +1443,11 @@
       <c r="X7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
     </row>
     <row r="8" spans="1:48">
       <c r="B8" s="2"/>
@@ -2526,7 +2507,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J2">
       <formula1>$AB$2:$AF$2</formula1>

--- a/Common/Template/ModelTemplate.xlsx
+++ b/Common/Template/ModelTemplate.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>正则表达</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -315,6 +315,10 @@
   </si>
   <si>
     <t>OwnerTable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +427,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +494,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -704,9 +714,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -752,6 +759,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -761,74 +837,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,12 +1138,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10" style="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="11" width="13.625" style="1" customWidth="1"/>
     <col min="12" max="26" width="10" style="1"/>
     <col min="27" max="27" width="13.5" style="1" customWidth="1"/>
@@ -1146,273 +1156,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="17.25" thickBot="1">
-      <c r="A1" s="10"/>
+      <c r="A1" s="51" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" spans="1:48">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="48">
         <v>1</v>
       </c>
-      <c r="M2" s="26"/>
+      <c r="M2" s="48"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="24" t="s">
         <v>68</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="12" t="s">
         <v>59</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AK2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AL2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AN2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AO2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="16" t="s">
+      <c r="AP2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="17"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="16"/>
     </row>
     <row r="3" spans="1:48" ht="17.25" thickBot="1">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="24" t="s">
+      <c r="AC3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" s="24"/>
-      <c r="AJ3" s="18" t="s">
+      <c r="AD3" s="23"/>
+      <c r="AJ3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AM3" s="19" t="s">
+      <c r="AM3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AN3" s="19" t="s">
+      <c r="AN3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AO3" s="20" t="s">
+      <c r="AO3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="AP3" s="20" t="s">
+      <c r="AP3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AQ3" s="20" t="s">
+      <c r="AQ3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AR3" s="19" t="s">
+      <c r="AR3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AS3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AT3" s="21" t="s">
+      <c r="AT3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AU3" s="21" t="s">
+      <c r="AU3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AV3" s="22" t="s">
+      <c r="AV3" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="33" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="37" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="47" t="s">
+      <c r="M5" s="42"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="50" t="s">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="43" t="s">
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36" t="s">
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="44" t="s">
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="44" t="s">
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="34" t="s">
+      <c r="X6" s="29"/>
+      <c r="Y6" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="34" t="s">
+      <c r="Z6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="36" t="s">
+      <c r="AA6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="36" t="s">
+      <c r="AB6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="36" t="s">
+      <c r="AC6" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1">
-      <c r="B7" s="40"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1443,11 +1455,11 @@
       <c r="X7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
     </row>
     <row r="8" spans="1:48">
       <c r="B8" s="2"/>
@@ -2471,18 +2483,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="O5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F5:K5"/>
@@ -2499,13 +2506,18 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="4">

--- a/Common/Template/ModelTemplate.xlsx
+++ b/Common/Template/ModelTemplate.xlsx
@@ -49,10 +49,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>正则表达</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -68,237 +68,237 @@
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必须项目</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>更新者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>更新日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>电子邮件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>是/否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>日期时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型枚举</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Key项目</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>领域专家填写</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>开发人员填写</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>输入规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数据库设计</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>用户交互设计</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>领域项目名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>变量名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数据模型名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>名字空间名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数据集名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>主键前缀</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>列表类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>继承</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EntityBase</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
   </si>
   <si>
     <t>说明标题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>画面表示名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>标记</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HIDDEN</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SuperClass</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Flag</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SKIP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>枚举/Master类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>辅助评价表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>StatusMasterTable</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CatalogMasterTable</t>
   </si>
   <si>
     <t>手机</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>目录表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>目录类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>单精度浮点</t>
@@ -311,22 +311,32 @@
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OwnerTable</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CacheEntityBase</t>
+  </si>
+  <si>
+    <t>CacheEntityBase</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityBase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +344,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -683,138 +700,150 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -822,23 +851,14 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,15 +1158,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="11" width="13.625" style="1" customWidth="1"/>
-    <col min="12" max="26" width="10" style="1"/>
-    <col min="27" max="27" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="25" width="10" style="1"/>
+    <col min="26" max="26" width="15.25" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18.625" style="1" customWidth="1"/>
     <col min="28" max="28" width="10" style="1"/>
     <col min="29" max="29" width="14.875" style="1" customWidth="1"/>
     <col min="30" max="30" width="16" style="1" customWidth="1"/>
@@ -1156,7 +1177,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="17.25" thickBot="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1164,41 +1185,49 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="I2" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="50"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="48">
+      <c r="L2" s="50">
         <v>1</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="AA2" s="5" t="s">
+      <c r="M2" s="50"/>
+      <c r="Z2" s="5" t="s">
         <v>53</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="AB2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AF2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AJ2" s="13" t="s">
@@ -1233,27 +1262,28 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="AA3" s="5" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="Z3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AA3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AB3" s="23" t="s">
         <v>52</v>
       </c>
+      <c r="AC3" s="2"/>
       <c r="AD3" s="23"/>
       <c r="AJ3" s="17" t="s">
         <v>25</v>
@@ -1296,135 +1326,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="41" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="30" t="s">
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="33" t="s">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="25" t="s">
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26" t="s">
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="27" t="s">
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="27" t="s">
+      <c r="U6" s="30"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="35" t="s">
+      <c r="X6" s="31"/>
+      <c r="Y6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="35" t="s">
+      <c r="Z6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="26" t="s">
+      <c r="AA6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="26" t="s">
+      <c r="AB6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="26" t="s">
+      <c r="AC6" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1">
-      <c r="B7" s="45"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1455,11 +1485,11 @@
       <c r="X7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
     </row>
     <row r="8" spans="1:48">
       <c r="B8" s="2"/>
@@ -2519,16 +2549,16 @@
     <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="Z6:Z7"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J2">
-      <formula1>$AB$2:$AF$2</formula1>
+      <formula1>$AB$2:$AG$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y1048576 Y1 X2:X3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y1048576 X2:X3 Y1">
       <formula1>$AK$2:$AP$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>$AB$3:$AC$3</formula1>
+      <formula1>$AA$3:$AB$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>$AK$3:$AV$3</formula1>
